--- a/PRODUCTOS/excel/bombas_datos.xlsx
+++ b/PRODUCTOS/excel/bombas_datos.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10923F9-1C3A-430A-AB55-E82C782EB195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="PRESURIZADORES"/>
-    <sheet r:id="rId2" sheetId="2" name="SANITARIA"/>
-    <sheet r:id="rId3" sheetId="3" name="CALEFACCION"/>
-    <sheet r:id="rId4" sheetId="4" name="ELEVADORAS"/>
-    <sheet r:id="rId5" sheetId="5" name="OTROS"/>
+    <sheet name="PRESURIZADORES" sheetId="1" r:id="rId1"/>
+    <sheet name="SANITARIA" sheetId="2" r:id="rId2"/>
+    <sheet name="CALEFACCION" sheetId="3" r:id="rId3"/>
+    <sheet name="ELEVADORAS" sheetId="4" r:id="rId4"/>
+    <sheet name="OTROS" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -736,9 +742,6 @@
     <t>0005</t>
   </si>
   <si>
-    <t>PRESURIZADOR TANGO SFL MAX 23</t>
-  </si>
-  <si>
     <t>TANGO SFL MAX 26</t>
   </si>
   <si>
@@ -1048,12 +1051,14 @@
   <si>
     <t>PRODUCTOS\bombas\img\0016_1.jpg</t>
   </si>
+  <si>
+    <t>PRESURIZADOR TANGO SFL MAX 22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1115,27 +1120,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4b084"/>
+        <fgColor rgb="FFF4B084"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffd966"/>
+        <fgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa9d08e"/>
+        <fgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFbdd7ee"/>
+        <fgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf28383"/>
+        <fgColor rgb="FFF28383"/>
       </patternFill>
     </fill>
   </fills>
@@ -1182,7 +1187,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1209,7 +1214,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1237,7 +1242,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1252,7 +1257,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1264,10 +1269,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1282,7 +1287,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1291,13 +1296,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1309,271 +1314,270 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1584,10 +1588,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1625,71 +1629,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1717,7 +1721,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1740,11 +1744,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1753,13 +1757,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1769,7 +1773,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1778,7 +1782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1787,7 +1791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1795,10 +1799,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1863,47 +1867,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="147.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="53" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="53" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="53" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="53" width="44.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="53" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="53" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="54" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="54" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="54" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="54" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="54" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="85" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="53" width="58.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="53" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="53" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="53" width="53.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="53" width="39.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="53" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="53" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="53" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="53" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="53" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="53" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="53" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="28" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row r="1" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="300">
+    <row r="2" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>163</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="299.25">
+    <row r="3" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>182</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="299.25">
+    <row r="4" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>189</v>
       </c>
@@ -2247,12 +2252,12 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="299.25">
+    <row r="5" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>33</v>
@@ -2333,27 +2338,27 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="299.25">
+    <row r="6" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="F6" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="G6" s="76" t="s">
         <v>208</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>209</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>169</v>
@@ -2398,7 +2403,7 @@
         <v>76</v>
       </c>
       <c r="V6" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W6" s="21" t="s">
         <v>177</v>
@@ -2419,27 +2424,27 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="235.5">
+    <row r="7" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>211</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>212</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="F7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="G7" s="76" t="s">
         <v>215</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>216</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>169</v>
@@ -2466,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="23" t="s">
         <v>172</v>
@@ -2484,10 +2489,10 @@
         <v>76</v>
       </c>
       <c r="V7" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="W7" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>219</v>
       </c>
       <c r="X7" s="23" t="s">
         <v>178</v>
@@ -2496,36 +2501,36 @@
         <v>46</v>
       </c>
       <c r="Z7" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA7" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="AA7" s="48" t="s">
+      <c r="AB7" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="AB7" s="48" t="s">
+    </row>
+    <row r="8" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="205.5">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="75" t="s">
         <v>223</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>224</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="F8" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="G8" s="76" t="s">
         <v>227</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>228</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>169</v>
@@ -2552,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="23" t="s">
         <v>172</v>
@@ -2564,16 +2569,16 @@
         <v>174</v>
       </c>
       <c r="T8" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U8" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V8" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="W8" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="X8" s="23" t="s">
         <v>178</v>
@@ -2582,36 +2587,36 @@
         <v>46</v>
       </c>
       <c r="Z8" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA8" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB8" s="48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AA8" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB8" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="201.75">
-      <c r="A9" s="20" t="s">
+      <c r="B9" s="75" t="s">
         <v>233</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>234</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="F9" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="G9" s="76" t="s">
         <v>237</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>238</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>169</v>
@@ -2638,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="23" t="s">
         <v>172</v>
@@ -2650,16 +2655,16 @@
         <v>174</v>
       </c>
       <c r="T9" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U9" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V9" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="W9" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="X9" s="23" t="s">
         <v>178</v>
@@ -2668,36 +2673,36 @@
         <v>46</v>
       </c>
       <c r="Z9" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA9" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB9" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="AB9" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="75" t="s">
         <v>239</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>240</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="F10" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="G10" s="76" t="s">
         <v>243</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>244</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>169</v>
@@ -2724,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="23" t="s">
         <v>172</v>
@@ -2736,16 +2741,16 @@
         <v>174</v>
       </c>
       <c r="T10" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U10" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V10" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="W10" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="X10" s="23" t="s">
         <v>178</v>
@@ -2754,36 +2759,36 @@
         <v>46</v>
       </c>
       <c r="Z10" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA10" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB10" s="48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AA10" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB10" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="204">
-      <c r="A11" s="20" t="s">
+      <c r="B11" s="75" t="s">
         <v>248</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>249</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="F11" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="G11" s="76" t="s">
         <v>252</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>169</v>
@@ -2822,16 +2827,16 @@
         <v>174</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U11" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V11" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="W11" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="X11" s="23" t="s">
         <v>178</v>
@@ -2840,36 +2845,36 @@
         <v>46</v>
       </c>
       <c r="Z11" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA11" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB11" s="48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="AA11" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB11" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="211.5">
-      <c r="A12" s="20" t="s">
+      <c r="B12" s="75" t="s">
         <v>257</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>258</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="G12" s="76" t="s">
         <v>260</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>169</v>
@@ -2908,16 +2913,16 @@
         <v>174</v>
       </c>
       <c r="T12" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U12" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V12" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W12" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X12" s="23" t="s">
         <v>178</v>
@@ -2926,36 +2931,36 @@
         <v>46</v>
       </c>
       <c r="Z12" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA12" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB12" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="AB12" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row r="13" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="75" t="s">
         <v>263</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>264</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="F13" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="76" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="48" t="s">
         <v>169</v>
@@ -2982,7 +2987,7 @@
         <v>39</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="23" t="s">
         <v>172</v>
@@ -2991,16 +2996,16 @@
         <v>173</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T13" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U13" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V13" s="48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W13" s="48" t="s">
         <v>39</v>
@@ -3012,36 +3017,36 @@
         <v>46</v>
       </c>
       <c r="Z13" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA13" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="AA13" s="48" t="s">
+      <c r="AB13" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AB13" s="48" t="s">
+    </row>
+    <row r="14" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="194.25">
-      <c r="A14" s="20" t="s">
+      <c r="B14" s="75" t="s">
         <v>274</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>275</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="F14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="76" t="s">
         <v>277</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>278</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>169</v>
@@ -3068,7 +3073,7 @@
         <v>39</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="23" t="s">
         <v>172</v>
@@ -3077,16 +3082,16 @@
         <v>173</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T14" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V14" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W14" s="78"/>
       <c r="X14" s="23" t="s">
@@ -3096,36 +3101,36 @@
         <v>46</v>
       </c>
       <c r="Z14" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA14" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="AA14" s="48" t="s">
+      <c r="AB14" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AB14" s="48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="207.75">
+    </row>
+    <row r="15" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="75" t="s">
         <v>280</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>281</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="F15" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="76" t="s">
         <v>283</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>284</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>169</v>
@@ -3152,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>172</v>
@@ -3161,16 +3166,16 @@
         <v>173</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T15" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>76</v>
       </c>
       <c r="V15" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W15" s="48" t="s">
         <v>39</v>
@@ -3182,36 +3187,36 @@
         <v>46</v>
       </c>
       <c r="Z15" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA15" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="AA15" s="48" t="s">
+      <c r="AB15" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AB15" s="48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="195.75">
+    </row>
+    <row r="16" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>286</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>287</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="F16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="76" t="s">
         <v>289</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>290</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>55</v>
@@ -3262,42 +3267,42 @@
         <v>39</v>
       </c>
       <c r="X16" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="Y16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="48" t="s">
+      <c r="AA16" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="AA16" s="48" t="s">
+      <c r="AB16" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="AB16" s="48" t="s">
+    </row>
+    <row r="17" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="193.5">
-      <c r="A17" s="20" t="s">
+      <c r="B17" s="48" t="s">
         <v>295</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>296</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="E17" s="48" t="s">
-        <v>298</v>
-      </c>
       <c r="F17" s="48" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>55</v>
@@ -3348,22 +3353,22 @@
         <v>39</v>
       </c>
       <c r="X17" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y17" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="48" t="s">
+      <c r="AA17" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="AA17" s="48" t="s">
+      <c r="AB17" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="AB17" s="48" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="192.75">
+    </row>
+    <row r="18" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
@@ -3393,7 +3398,7 @@
       <c r="AA18" s="78"/>
       <c r="AB18" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="284.25">
+    <row r="19" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
@@ -3423,7 +3428,7 @@
       <c r="AA19" s="78"/>
       <c r="AB19" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="279">
+    <row r="20" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -3453,7 +3458,7 @@
       <c r="AA20" s="78"/>
       <c r="AB20" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
@@ -3483,7 +3488,7 @@
       <c r="AA21" s="78"/>
       <c r="AB21" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
@@ -3513,7 +3518,7 @@
       <c r="AA22" s="78"/>
       <c r="AB22" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
@@ -3543,7 +3548,7 @@
       <c r="AA23" s="78"/>
       <c r="AB23" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
@@ -3573,7 +3578,7 @@
       <c r="AA24" s="78"/>
       <c r="AB24" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
@@ -3603,7 +3608,7 @@
       <c r="AA25" s="78"/>
       <c r="AB25" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="79"/>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
@@ -3633,7 +3638,7 @@
       <c r="AA26" s="78"/>
       <c r="AB26" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="79"/>
       <c r="B27" s="78"/>
       <c r="C27" s="78"/>
@@ -3663,7 +3668,7 @@
       <c r="AA27" s="78"/>
       <c r="AB27" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
@@ -3693,7 +3698,7 @@
       <c r="AA28" s="78"/>
       <c r="AB28" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="78"/>
       <c r="C29" s="78"/>
@@ -3723,7 +3728,7 @@
       <c r="AA29" s="78"/>
       <c r="AB29" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="79"/>
       <c r="B30" s="78"/>
       <c r="C30" s="78"/>
@@ -3753,7 +3758,7 @@
       <c r="AA30" s="78"/>
       <c r="AB30" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="79"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
@@ -3783,7 +3788,7 @@
       <c r="AA31" s="78"/>
       <c r="AB31" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="79"/>
       <c r="B32" s="78"/>
       <c r="C32" s="78"/>
@@ -3813,7 +3818,7 @@
       <c r="AA32" s="78"/>
       <c r="AB32" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="78"/>
       <c r="C33" s="78"/>
@@ -3843,7 +3848,7 @@
       <c r="AA33" s="78"/>
       <c r="AB33" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="78"/>
       <c r="C34" s="78"/>
@@ -3873,7 +3878,7 @@
       <c r="AA34" s="78"/>
       <c r="AB34" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -3903,7 +3908,7 @@
       <c r="AA35" s="48"/>
       <c r="AB35" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -3933,7 +3938,7 @@
       <c r="AA36" s="48"/>
       <c r="AB36" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -3963,7 +3968,7 @@
       <c r="AA37" s="48"/>
       <c r="AB37" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3993,7 +3998,7 @@
       <c r="AA38" s="48"/>
       <c r="AB38" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -4023,7 +4028,7 @@
       <c r="AA39" s="48"/>
       <c r="AB39" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -4053,7 +4058,7 @@
       <c r="AA40" s="48"/>
       <c r="AB40" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -4083,7 +4088,7 @@
       <c r="AA41" s="48"/>
       <c r="AB41" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -4113,7 +4118,7 @@
       <c r="AA42" s="48"/>
       <c r="AB42" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -4143,7 +4148,7 @@
       <c r="AA43" s="48"/>
       <c r="AB43" s="82"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:28" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -4179,7 +4184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4187,39 +4192,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="53" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="53" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="53" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="53" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="53" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="54" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="54" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="54" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="54" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="54" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="52" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="53" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="53" width="40.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="53" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="53" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="53" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="53" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="53" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="53" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="53" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="53" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="53" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="53" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="53" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30" style="53" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>139</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>150</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="163.5">
+    <row r="4" spans="1:28" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>157</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -4593,7 +4597,7 @@
       <c r="AA5" s="48"/>
       <c r="AB5" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -4623,7 +4627,7 @@
       <c r="AA6" s="48"/>
       <c r="AB6" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -4653,7 +4657,7 @@
       <c r="AA7" s="48"/>
       <c r="AB7" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -4683,7 +4687,7 @@
       <c r="AA8" s="48"/>
       <c r="AB8" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -4713,7 +4717,7 @@
       <c r="AA9" s="48"/>
       <c r="AB9" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -4743,7 +4747,7 @@
       <c r="AA10" s="48"/>
       <c r="AB10" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -4773,7 +4777,7 @@
       <c r="AA11" s="48"/>
       <c r="AB11" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -4803,7 +4807,7 @@
       <c r="AA12" s="48"/>
       <c r="AB12" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -4833,7 +4837,7 @@
       <c r="AA13" s="48"/>
       <c r="AB13" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -4863,7 +4867,7 @@
       <c r="AA14" s="48"/>
       <c r="AB14" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -4893,7 +4897,7 @@
       <c r="AA15" s="48"/>
       <c r="AB15" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -4923,7 +4927,7 @@
       <c r="AA16" s="48"/>
       <c r="AB16" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -4953,7 +4957,7 @@
       <c r="AA17" s="48"/>
       <c r="AB17" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -4983,7 +4987,7 @@
       <c r="AA18" s="48"/>
       <c r="AB18" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -5013,7 +5017,7 @@
       <c r="AA19" s="48"/>
       <c r="AB19" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
@@ -5043,7 +5047,7 @@
       <c r="AA20" s="48"/>
       <c r="AB20" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -5073,7 +5077,7 @@
       <c r="AA21" s="48"/>
       <c r="AB21" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -5103,7 +5107,7 @@
       <c r="AA22" s="48"/>
       <c r="AB22" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -5133,7 +5137,7 @@
       <c r="AA23" s="48"/>
       <c r="AB23" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
@@ -5163,7 +5167,7 @@
       <c r="AA24" s="48"/>
       <c r="AB24" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -5193,7 +5197,7 @@
       <c r="AA25" s="48"/>
       <c r="AB25" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -5223,7 +5227,7 @@
       <c r="AA26" s="48"/>
       <c r="AB26" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -5253,7 +5257,7 @@
       <c r="AA27" s="48"/>
       <c r="AB27" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -5283,7 +5287,7 @@
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
@@ -5313,7 +5317,7 @@
       <c r="AA29" s="48"/>
       <c r="AB29" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -5343,7 +5347,7 @@
       <c r="AA30" s="48"/>
       <c r="AB30" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -5373,7 +5377,7 @@
       <c r="AA31" s="48"/>
       <c r="AB31" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -5403,7 +5407,7 @@
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -5433,7 +5437,7 @@
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -5463,7 +5467,7 @@
       <c r="AA34" s="48"/>
       <c r="AB34" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -5493,7 +5497,7 @@
       <c r="AA35" s="48"/>
       <c r="AB35" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -5523,7 +5527,7 @@
       <c r="AA36" s="48"/>
       <c r="AB36" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -5553,7 +5557,7 @@
       <c r="AA37" s="48"/>
       <c r="AB37" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -5583,7 +5587,7 @@
       <c r="AA38" s="48"/>
       <c r="AB38" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -5613,7 +5617,7 @@
       <c r="AA39" s="48"/>
       <c r="AB39" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -5643,7 +5647,7 @@
       <c r="AA40" s="48"/>
       <c r="AB40" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -5673,7 +5677,7 @@
       <c r="AA41" s="48"/>
       <c r="AB41" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -5703,7 +5707,7 @@
       <c r="AA42" s="48"/>
       <c r="AB42" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -5733,7 +5737,7 @@
       <c r="AA43" s="48"/>
       <c r="AB43" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -5763,7 +5767,7 @@
       <c r="AA44" s="48"/>
       <c r="AB44" s="48"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -5799,7 +5803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5807,39 +5811,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="26" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="26" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="26" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="27" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="27" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="27" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="27" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="27" width="42.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="26" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="27" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="26" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="26" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="26" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="26" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="24" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.7109375" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="180" customFormat="1" s="19">
+    <row r="2" spans="1:28" s="19" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>89</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="180" customFormat="1" s="19">
+    <row r="3" spans="1:28" s="19" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>110</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="182.25" customFormat="1" s="19">
+    <row r="4" spans="1:28" s="19" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>119</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="181.5" customFormat="1" s="19">
+    <row r="5" spans="1:28" s="19" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>129</v>
       </c>
@@ -6275,7 +6278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6283,39 +6286,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="26" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="26" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="25" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="27" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="27" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="27" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="27" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="27" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="27" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="26" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="27" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="26" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="26" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="26" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="33.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="19">
+    <row r="2" spans="1:28" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>60</v>
       </c>
@@ -6487,7 +6489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="19">
+    <row r="3" spans="1:28" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>80</v>
       </c>
@@ -6579,50 +6581,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="26" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="26" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="25" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="26" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="26" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="27" width="91.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="27" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="26" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="26" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="26" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="26" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="26" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="26" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="26" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="26" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="26" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="28" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="91.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="19">
+    <row r="2" spans="1:31" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="19">
+    <row r="3" spans="1:31" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>49</v>
       </c>

--- a/PRODUCTOS/excel/bombas_datos.xlsx
+++ b/PRODUCTOS/excel/bombas_datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930CE283-1BB7-41BE-A10E-389286A1D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC77864-883A-4BB2-81BE-86773E00E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRESURIZADORES_0000" sheetId="1" r:id="rId1"/>
@@ -4036,8 +4036,8 @@
   </sheetPr>
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4057,7 @@
     <col min="14" max="14" width="14.140625" style="53" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" style="51" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.42578125" style="52" customWidth="1"/>
     <col min="18" max="18" width="33.140625" style="52" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" style="52" bestFit="1" customWidth="1"/>
@@ -4157,7 +4157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>261</v>
       </c>
@@ -6441,7 +6441,7 @@
   </sheetPr>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
